--- a/HW_2/VIVADO/createFrequencies.xlsx
+++ b/HW_2/VIVADO/createFrequencies.xlsx
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,8 +373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17DDDED-12E6-43E7-97A7-292836F2579B}">
   <dimension ref="A3:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -464,7 +460,7 @@
         <v>9.0171325518485117E-4</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C4:C39" si="3">B5/(0.00000001)</f>
+        <f t="shared" ref="C5:C39" si="3">B5/(0.00000001)</f>
         <v>90171.325518485115</v>
       </c>
       <c r="D5" s="1">
